--- a/Data.xlsx
+++ b/Data.xlsx
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13239" uniqueCount="3251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13239" uniqueCount="3252">
   <si>
     <t>Lon</t>
   </si>
@@ -10176,6 +10176,9 @@
   </si>
   <si>
     <t>-75.3846666666667</t>
+  </si>
+  <si>
+    <t>which</t>
   </si>
 </sst>
 </file>
@@ -11005,8 +11008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L54" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
+    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14318,7 +14321,7 @@
         <v>933</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>933</v>
+        <v>3251</v>
       </c>
       <c r="Q40" s="17">
         <v>0</v>
@@ -14653,7 +14656,7 @@
         <v>939</v>
       </c>
       <c r="Q44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="41">
         <v>24</v>
@@ -14819,7 +14822,7 @@
         <v>941</v>
       </c>
       <c r="Q46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="41">
         <v>24</v>
@@ -14902,7 +14905,7 @@
         <v>942</v>
       </c>
       <c r="Q47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="41">
         <v>24</v>
